--- a/Planning/Gantt chart.xlsx
+++ b/Planning/Gantt chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{0F9F250D-A095-4D2B-96A5-AF707995CF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933565DC-8723-4E19-B8BE-2E010A888BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,9 +237,6 @@
     <t>Production</t>
   </si>
   <si>
-    <t xml:space="preserve">Template website </t>
-  </si>
-  <si>
     <t>Target audience</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t xml:space="preserve">Gantt chart </t>
+  </si>
+  <si>
+    <t>Template Website</t>
   </si>
 </sst>
 </file>
@@ -1280,6 +1280,40 @@
     <xf numFmtId="168" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="11" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1291,40 +1325,6 @@
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="11" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1937,7 +1937,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1980,117 +1980,117 @@
         <v>2</v>
       </c>
       <c r="B3" s="50"/>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="83">
+      <c r="D3" s="90"/>
+      <c r="E3" s="95">
         <v>44600</v>
       </c>
-      <c r="F3" s="83"/>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="92">
         <f>I5</f>
         <v>44599</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="80">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
         <f>P5</f>
         <v>44606</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="80">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
         <f>W5</f>
         <v>44613</v>
       </c>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="80">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
         <f>AD5</f>
         <v>44620</v>
       </c>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="80">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
         <f>AK5</f>
         <v>44627</v>
       </c>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="80">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
         <f>AR5</f>
         <v>44634</v>
       </c>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="81"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="80">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
         <f>AY5</f>
         <v>44641</v>
       </c>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="81"/>
-      <c r="BD4" s="81"/>
-      <c r="BE4" s="82"/>
-      <c r="BF4" s="80">
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
         <f>BF5</f>
         <v>44648</v>
       </c>
-      <c r="BG4" s="81"/>
-      <c r="BH4" s="81"/>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="81"/>
-      <c r="BK4" s="81"/>
-      <c r="BL4" s="82"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="I5" s="77">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44599</v>
@@ -2953,7 +2953,7 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="52" t="s">
         <v>48</v>
@@ -3034,22 +3034,16 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
       <c r="B13" s="59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="72">
-        <f>E10+1</f>
-        <v>44602</v>
-      </c>
-      <c r="F13" s="72">
-        <f>E13+2</f>
-        <v>44604</v>
-      </c>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="14">
+      <c r="H13" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
@@ -3111,7 +3105,7 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="43"/>
       <c r="B14" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="17"/>
@@ -3179,7 +3173,7 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="43"/>
       <c r="B15" s="59" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C15" s="52"/>
       <c r="D15" s="17"/>
@@ -3244,78 +3238,78 @@
       <c r="BK15" s="29"/>
       <c r="BL15" s="29"/>
     </row>
-    <row r="16" spans="1:64" s="95" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="87" t="s">
+    <row r="16" spans="1:64" s="88" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93" t="str">
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="94"/>
-      <c r="AJ16" s="94"/>
-      <c r="AK16" s="94"/>
-      <c r="AL16" s="94"/>
-      <c r="AM16" s="94"/>
-      <c r="AN16" s="94"/>
-      <c r="AO16" s="94"/>
-      <c r="AP16" s="94"/>
-      <c r="AQ16" s="94"/>
-      <c r="AR16" s="94"/>
-      <c r="AS16" s="94"/>
-      <c r="AT16" s="94"/>
-      <c r="AU16" s="94"/>
-      <c r="AV16" s="94"/>
-      <c r="AW16" s="94"/>
-      <c r="AX16" s="94"/>
-      <c r="AY16" s="94"/>
-      <c r="AZ16" s="94"/>
-      <c r="BA16" s="94"/>
-      <c r="BB16" s="94"/>
-      <c r="BC16" s="94"/>
-      <c r="BD16" s="94"/>
-      <c r="BE16" s="94"/>
-      <c r="BF16" s="94"/>
-      <c r="BG16" s="94"/>
-      <c r="BH16" s="94"/>
-      <c r="BI16" s="94"/>
-      <c r="BJ16" s="94"/>
-      <c r="BK16" s="94"/>
-      <c r="BL16" s="94"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="87"/>
+      <c r="AL16" s="87"/>
+      <c r="AM16" s="87"/>
+      <c r="AN16" s="87"/>
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="87"/>
+      <c r="AS16" s="87"/>
+      <c r="AT16" s="87"/>
+      <c r="AU16" s="87"/>
+      <c r="AV16" s="87"/>
+      <c r="AW16" s="87"/>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="87"/>
+      <c r="AZ16" s="87"/>
+      <c r="BA16" s="87"/>
+      <c r="BB16" s="87"/>
+      <c r="BC16" s="87"/>
+      <c r="BD16" s="87"/>
+      <c r="BE16" s="87"/>
+      <c r="BF16" s="87"/>
+      <c r="BG16" s="87"/>
+      <c r="BH16" s="87"/>
+      <c r="BI16" s="87"/>
+      <c r="BJ16" s="87"/>
+      <c r="BK16" s="87"/>
+      <c r="BL16" s="87"/>
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="44"/>
@@ -3328,11 +3322,11 @@
       </c>
       <c r="E17" s="73">
         <f>E13+1</f>
-        <v>44603</v>
+        <v>1</v>
       </c>
       <c r="F17" s="73">
         <f>E17+4</f>
-        <v>44607</v>
+        <v>5</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
@@ -3407,11 +3401,11 @@
       </c>
       <c r="E18" s="73">
         <f>E17+2</f>
-        <v>44605</v>
+        <v>3</v>
       </c>
       <c r="F18" s="73">
         <f>E18+5</f>
-        <v>44610</v>
+        <v>8</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
@@ -3484,11 +3478,11 @@
       <c r="D19" s="18"/>
       <c r="E19" s="73">
         <f>F18</f>
-        <v>44610</v>
+        <v>8</v>
       </c>
       <c r="F19" s="73">
         <f>E19+3</f>
-        <v>44613</v>
+        <v>11</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
@@ -3561,11 +3555,11 @@
       <c r="D20" s="18"/>
       <c r="E20" s="73">
         <f>E19</f>
-        <v>44610</v>
+        <v>8</v>
       </c>
       <c r="F20" s="73">
         <f>E20+2</f>
-        <v>44612</v>
+        <v>10</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
@@ -3632,17 +3626,17 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43"/>
       <c r="B21" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="53"/>
       <c r="D21" s="18"/>
       <c r="E21" s="73">
         <f>E20</f>
-        <v>44610</v>
+        <v>8</v>
       </c>
       <c r="F21" s="73">
         <f>E21+3</f>
-        <v>44613</v>
+        <v>11</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14">
@@ -3711,7 +3705,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="20"/>
@@ -4169,7 +4163,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="23"/>
@@ -4768,11 +4762,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4780,6 +4769,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D35">
     <cfRule type="dataBar" priority="14">

--- a/Planning/Gantt chart.xlsx
+++ b/Planning/Gantt chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933565DC-8723-4E19-B8BE-2E010A888BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E694B49A-EA6B-405B-971A-1B1F4D1DC597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -228,18 +228,9 @@
     <t>Minas</t>
   </si>
   <si>
-    <t xml:space="preserve">To do </t>
-  </si>
-  <si>
-    <t>Git/Github template</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
-    <t>Target audience</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mind Map </t>
   </si>
   <si>
@@ -249,13 +240,43 @@
     <t>Personal Evaluation</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gantt chart </t>
-  </si>
-  <si>
-    <t>Template Website</t>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Figma design</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Learning Materials</t>
+  </si>
+  <si>
+    <t>Target Audience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gantt Chart </t>
+  </si>
+  <si>
+    <t>Git/Github Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Do </t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t>About Us</t>
   </si>
 </sst>
 </file>
@@ -1936,8 +1957,8 @@
   <dimension ref="A1:BL38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI15" sqref="AI15"/>
+      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2792,7 +2813,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C10" s="52" t="s">
         <v>47</v>
@@ -2873,7 +2894,7 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43"/>
       <c r="B11" s="59" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>48</v>
@@ -2953,26 +2974,25 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="59" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D12" s="17">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="72">
         <f>F11+1</f>
         <v>44614</v>
       </c>
       <c r="F12" s="72">
-        <f>E12</f>
-        <v>44614</v>
+        <v>44620</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -3034,16 +3054,24 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
       <c r="B13" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
+        <v>50</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="72">
+        <v>44614</v>
+      </c>
+      <c r="F13" s="72">
+        <v>44619</v>
+      </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="14" t="str">
+      <c r="H13" s="14">
         <f t="shared" si="6"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
@@ -3105,12 +3133,20 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="43"/>
       <c r="B14" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+        <v>59</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="72">
+        <v>44614</v>
+      </c>
+      <c r="F14" s="72">
+        <v>44620</v>
+      </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="29"/>
@@ -3173,12 +3209,20 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="43"/>
       <c r="B15" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
+        <v>56</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="72">
+        <v>44614</v>
+      </c>
+      <c r="F15" s="72">
+        <v>44617</v>
+      </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="29"/>
@@ -3243,7 +3287,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="82"/>
       <c r="D16" s="83"/>
@@ -3314,19 +3358,21 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="44"/>
       <c r="B17" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="53"/>
+        <v>57</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>53</v>
+      </c>
       <c r="D17" s="18">
         <v>0</v>
       </c>
       <c r="E17" s="73">
         <f>E13+1</f>
-        <v>1</v>
+        <v>44615</v>
       </c>
       <c r="F17" s="73">
         <f>E17+4</f>
-        <v>5</v>
+        <v>44619</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
@@ -3393,19 +3439,21 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43"/>
       <c r="B18" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="53"/>
+        <v>58</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>48</v>
+      </c>
       <c r="D18" s="18">
         <v>0</v>
       </c>
       <c r="E18" s="73">
         <f>E17+2</f>
-        <v>3</v>
+        <v>44617</v>
       </c>
       <c r="F18" s="73">
         <f>E18+5</f>
-        <v>8</v>
+        <v>44622</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
@@ -3472,17 +3520,19 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="43"/>
       <c r="B19" s="60" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C19" s="53"/>
-      <c r="D19" s="18"/>
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
       <c r="E19" s="73">
         <f>F18</f>
-        <v>8</v>
+        <v>44622</v>
       </c>
       <c r="F19" s="73">
         <f>E19+3</f>
-        <v>11</v>
+        <v>44625</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
@@ -3549,17 +3599,21 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="43"/>
       <c r="B20" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
       <c r="E20" s="73">
         <f>E19</f>
-        <v>8</v>
+        <v>44622</v>
       </c>
       <c r="F20" s="73">
         <f>E20+2</f>
-        <v>10</v>
+        <v>44624</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
@@ -3626,17 +3680,21 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43"/>
       <c r="B21" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="18"/>
+        <v>65</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0</v>
+      </c>
       <c r="E21" s="73">
         <f>E20</f>
-        <v>8</v>
+        <v>44622</v>
       </c>
       <c r="F21" s="73">
         <f>E21+3</f>
-        <v>11</v>
+        <v>44625</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14">
@@ -3705,7 +3763,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="20"/>
@@ -3778,7 +3836,9 @@
       <c r="B23" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="55" t="s">
+        <v>55</v>
+      </c>
       <c r="D23" s="21"/>
       <c r="E23" s="74">
         <f>E9+15</f>
@@ -3855,7 +3915,9 @@
       <c r="B24" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="55"/>
+      <c r="C24" s="55" t="s">
+        <v>54</v>
+      </c>
       <c r="D24" s="21"/>
       <c r="E24" s="74">
         <f>F23+1</f>
@@ -3932,7 +3994,9 @@
       <c r="B25" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="55"/>
+      <c r="C25" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="D25" s="21"/>
       <c r="E25" s="74">
         <f>E24+5</f>
@@ -4009,7 +4073,9 @@
       <c r="B26" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="55" t="s">
+        <v>48</v>
+      </c>
       <c r="D26" s="21"/>
       <c r="E26" s="74">
         <f>F25+1</f>
@@ -4163,7 +4229,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="23"/>

--- a/Planning/Gantt chart.xlsx
+++ b/Planning/Gantt chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98821ADA-E049-439E-A677-40A81963CA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E543EA9-933C-4DCA-9B21-171DA869B23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1366,6 +1366,25 @@
     <xf numFmtId="166" fontId="26" fillId="12" borderId="2" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="19" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="19" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="2" xfId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="2" xfId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1379,25 +1398,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="18" xfId="9" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="19" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="19" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="2" xfId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="2" xfId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2106,8 +2106,8 @@
   <dimension ref="A1:DP47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S42" sqref="S42"/>
+      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2149,644 +2149,644 @@
         <v>2</v>
       </c>
       <c r="B3" s="47"/>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="92">
+      <c r="D3" s="94"/>
+      <c r="E3" s="99">
         <v>44600</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="100"/>
     </row>
     <row r="4" spans="1:120" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="95"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="89">
+        <v>13</v>
+      </c>
+      <c r="I4" s="96">
         <f>I5</f>
-        <v>44627</v>
-      </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="89">
+        <v>44683</v>
+      </c>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="96">
         <f>P5</f>
-        <v>44634</v>
-      </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="89">
+        <v>44690</v>
+      </c>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="96">
         <f>W5</f>
-        <v>44641</v>
-      </c>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89">
+        <v>44697</v>
+      </c>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="96">
         <f>AD5</f>
-        <v>44648</v>
-      </c>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="91"/>
-      <c r="AK4" s="89">
+        <v>44704</v>
+      </c>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="96">
         <f>AK5</f>
-        <v>44655</v>
-      </c>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="91"/>
-      <c r="AR4" s="89">
+        <v>44711</v>
+      </c>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="96">
         <f>AR5</f>
-        <v>44662</v>
-      </c>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="89">
+        <v>44718</v>
+      </c>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="96">
         <f>AY5</f>
-        <v>44669</v>
-      </c>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="91"/>
-      <c r="BF4" s="89">
+        <v>44725</v>
+      </c>
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="98"/>
+      <c r="BF4" s="96">
         <f>BF5</f>
-        <v>44676</v>
-      </c>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="90"/>
-      <c r="BJ4" s="90"/>
-      <c r="BK4" s="90"/>
-      <c r="BL4" s="91"/>
-      <c r="BM4" s="89">
+        <v>44732</v>
+      </c>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
+      <c r="BJ4" s="97"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="98"/>
+      <c r="BM4" s="96">
         <f>BM5</f>
-        <v>44683</v>
-      </c>
-      <c r="BN4" s="90"/>
-      <c r="BO4" s="90"/>
-      <c r="BP4" s="90"/>
-      <c r="BQ4" s="90"/>
-      <c r="BR4" s="90"/>
-      <c r="BS4" s="91"/>
-      <c r="BT4" s="89">
+        <v>44739</v>
+      </c>
+      <c r="BN4" s="97"/>
+      <c r="BO4" s="97"/>
+      <c r="BP4" s="97"/>
+      <c r="BQ4" s="97"/>
+      <c r="BR4" s="97"/>
+      <c r="BS4" s="98"/>
+      <c r="BT4" s="96">
         <f>BT5</f>
-        <v>44690</v>
-      </c>
-      <c r="BU4" s="90"/>
-      <c r="BV4" s="90"/>
-      <c r="BW4" s="90"/>
-      <c r="BX4" s="90"/>
-      <c r="BY4" s="90"/>
-      <c r="BZ4" s="91"/>
-      <c r="CA4" s="89">
+        <v>44746</v>
+      </c>
+      <c r="BU4" s="97"/>
+      <c r="BV4" s="97"/>
+      <c r="BW4" s="97"/>
+      <c r="BX4" s="97"/>
+      <c r="BY4" s="97"/>
+      <c r="BZ4" s="98"/>
+      <c r="CA4" s="96">
         <f>CA5</f>
-        <v>44697</v>
-      </c>
-      <c r="CB4" s="90"/>
-      <c r="CC4" s="90"/>
-      <c r="CD4" s="90"/>
-      <c r="CE4" s="90"/>
-      <c r="CF4" s="90"/>
-      <c r="CG4" s="91"/>
-      <c r="CH4" s="89">
+        <v>44753</v>
+      </c>
+      <c r="CB4" s="97"/>
+      <c r="CC4" s="97"/>
+      <c r="CD4" s="97"/>
+      <c r="CE4" s="97"/>
+      <c r="CF4" s="97"/>
+      <c r="CG4" s="98"/>
+      <c r="CH4" s="96">
         <f>CH5</f>
-        <v>44704</v>
-      </c>
-      <c r="CI4" s="90"/>
-      <c r="CJ4" s="90"/>
-      <c r="CK4" s="90"/>
-      <c r="CL4" s="90"/>
-      <c r="CM4" s="90"/>
-      <c r="CN4" s="91"/>
-      <c r="CO4" s="89">
+        <v>44760</v>
+      </c>
+      <c r="CI4" s="97"/>
+      <c r="CJ4" s="97"/>
+      <c r="CK4" s="97"/>
+      <c r="CL4" s="97"/>
+      <c r="CM4" s="97"/>
+      <c r="CN4" s="98"/>
+      <c r="CO4" s="96">
         <f>CO5</f>
-        <v>44711</v>
-      </c>
-      <c r="CP4" s="90"/>
-      <c r="CQ4" s="90"/>
-      <c r="CR4" s="90"/>
-      <c r="CS4" s="90"/>
-      <c r="CT4" s="90"/>
-      <c r="CU4" s="91"/>
-      <c r="CV4" s="89">
+        <v>44767</v>
+      </c>
+      <c r="CP4" s="97"/>
+      <c r="CQ4" s="97"/>
+      <c r="CR4" s="97"/>
+      <c r="CS4" s="97"/>
+      <c r="CT4" s="97"/>
+      <c r="CU4" s="98"/>
+      <c r="CV4" s="96">
         <f>CV5</f>
-        <v>44718</v>
-      </c>
-      <c r="CW4" s="90"/>
-      <c r="CX4" s="90"/>
-      <c r="CY4" s="90"/>
-      <c r="CZ4" s="90"/>
-      <c r="DA4" s="90"/>
-      <c r="DB4" s="91"/>
-      <c r="DC4" s="89">
+        <v>44774</v>
+      </c>
+      <c r="CW4" s="97"/>
+      <c r="CX4" s="97"/>
+      <c r="CY4" s="97"/>
+      <c r="CZ4" s="97"/>
+      <c r="DA4" s="97"/>
+      <c r="DB4" s="98"/>
+      <c r="DC4" s="96">
         <f>DC5</f>
-        <v>44725</v>
-      </c>
-      <c r="DD4" s="90"/>
-      <c r="DE4" s="90"/>
-      <c r="DF4" s="90"/>
-      <c r="DG4" s="90"/>
-      <c r="DH4" s="90"/>
-      <c r="DI4" s="91"/>
-      <c r="DJ4" s="89">
+        <v>44781</v>
+      </c>
+      <c r="DD4" s="97"/>
+      <c r="DE4" s="97"/>
+      <c r="DF4" s="97"/>
+      <c r="DG4" s="97"/>
+      <c r="DH4" s="97"/>
+      <c r="DI4" s="98"/>
+      <c r="DJ4" s="96">
         <f>DJ5</f>
-        <v>44732</v>
-      </c>
-      <c r="DK4" s="90"/>
-      <c r="DL4" s="90"/>
-      <c r="DM4" s="90"/>
-      <c r="DN4" s="90"/>
-      <c r="DO4" s="90"/>
-      <c r="DP4" s="91"/>
+        <v>44788</v>
+      </c>
+      <c r="DK4" s="97"/>
+      <c r="DL4" s="97"/>
+      <c r="DM4" s="97"/>
+      <c r="DN4" s="97"/>
+      <c r="DO4" s="97"/>
+      <c r="DP4" s="98"/>
     </row>
     <row r="5" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
       <c r="I5" s="65">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44627</v>
+        <v>44683</v>
       </c>
       <c r="J5" s="66">
         <f>I5+1</f>
-        <v>44628</v>
+        <v>44684</v>
       </c>
       <c r="K5" s="66">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44629</v>
+        <v>44685</v>
       </c>
       <c r="L5" s="66">
         <f t="shared" si="0"/>
-        <v>44630</v>
+        <v>44686</v>
       </c>
       <c r="M5" s="66">
         <f t="shared" si="0"/>
-        <v>44631</v>
+        <v>44687</v>
       </c>
       <c r="N5" s="66">
         <f t="shared" si="0"/>
-        <v>44632</v>
+        <v>44688</v>
       </c>
       <c r="O5" s="67">
         <f t="shared" si="0"/>
-        <v>44633</v>
+        <v>44689</v>
       </c>
       <c r="P5" s="65">
         <f>O5+1</f>
-        <v>44634</v>
+        <v>44690</v>
       </c>
       <c r="Q5" s="66">
         <f>P5+1</f>
-        <v>44635</v>
+        <v>44691</v>
       </c>
       <c r="R5" s="66">
         <f t="shared" si="0"/>
-        <v>44636</v>
+        <v>44692</v>
       </c>
       <c r="S5" s="66">
         <f t="shared" si="0"/>
-        <v>44637</v>
+        <v>44693</v>
       </c>
       <c r="T5" s="66">
         <f t="shared" si="0"/>
-        <v>44638</v>
+        <v>44694</v>
       </c>
       <c r="U5" s="66">
         <f t="shared" si="0"/>
-        <v>44639</v>
+        <v>44695</v>
       </c>
       <c r="V5" s="67">
         <f t="shared" si="0"/>
-        <v>44640</v>
+        <v>44696</v>
       </c>
       <c r="W5" s="65">
         <f>V5+1</f>
-        <v>44641</v>
+        <v>44697</v>
       </c>
       <c r="X5" s="66">
         <f>W5+1</f>
-        <v>44642</v>
+        <v>44698</v>
       </c>
       <c r="Y5" s="66">
         <f t="shared" si="0"/>
-        <v>44643</v>
+        <v>44699</v>
       </c>
       <c r="Z5" s="66">
         <f t="shared" si="0"/>
-        <v>44644</v>
+        <v>44700</v>
       </c>
       <c r="AA5" s="66">
         <f t="shared" si="0"/>
-        <v>44645</v>
+        <v>44701</v>
       </c>
       <c r="AB5" s="66">
         <f t="shared" si="0"/>
-        <v>44646</v>
+        <v>44702</v>
       </c>
       <c r="AC5" s="67">
         <f t="shared" si="0"/>
-        <v>44647</v>
+        <v>44703</v>
       </c>
       <c r="AD5" s="65">
         <f>AC5+1</f>
-        <v>44648</v>
+        <v>44704</v>
       </c>
       <c r="AE5" s="66">
         <f>AD5+1</f>
-        <v>44649</v>
+        <v>44705</v>
       </c>
       <c r="AF5" s="66">
         <f t="shared" si="0"/>
-        <v>44650</v>
+        <v>44706</v>
       </c>
       <c r="AG5" s="66">
         <f t="shared" si="0"/>
-        <v>44651</v>
+        <v>44707</v>
       </c>
       <c r="AH5" s="66">
         <f t="shared" si="0"/>
-        <v>44652</v>
+        <v>44708</v>
       </c>
       <c r="AI5" s="66">
         <f t="shared" si="0"/>
-        <v>44653</v>
+        <v>44709</v>
       </c>
       <c r="AJ5" s="67">
         <f t="shared" si="0"/>
-        <v>44654</v>
+        <v>44710</v>
       </c>
       <c r="AK5" s="65">
         <f>AJ5+1</f>
-        <v>44655</v>
+        <v>44711</v>
       </c>
       <c r="AL5" s="66">
         <f>AK5+1</f>
-        <v>44656</v>
+        <v>44712</v>
       </c>
       <c r="AM5" s="66">
         <f t="shared" si="0"/>
-        <v>44657</v>
+        <v>44713</v>
       </c>
       <c r="AN5" s="66">
         <f t="shared" si="0"/>
-        <v>44658</v>
+        <v>44714</v>
       </c>
       <c r="AO5" s="66">
         <f t="shared" si="0"/>
-        <v>44659</v>
+        <v>44715</v>
       </c>
       <c r="AP5" s="66">
         <f t="shared" si="0"/>
-        <v>44660</v>
+        <v>44716</v>
       </c>
       <c r="AQ5" s="67">
         <f t="shared" si="0"/>
-        <v>44661</v>
+        <v>44717</v>
       </c>
       <c r="AR5" s="65">
         <f>AQ5+1</f>
-        <v>44662</v>
+        <v>44718</v>
       </c>
       <c r="AS5" s="66">
         <f>AR5+1</f>
-        <v>44663</v>
+        <v>44719</v>
       </c>
       <c r="AT5" s="66">
         <f t="shared" si="0"/>
-        <v>44664</v>
+        <v>44720</v>
       </c>
       <c r="AU5" s="66">
         <f t="shared" si="0"/>
-        <v>44665</v>
+        <v>44721</v>
       </c>
       <c r="AV5" s="66">
         <f t="shared" si="0"/>
-        <v>44666</v>
+        <v>44722</v>
       </c>
       <c r="AW5" s="66">
         <f t="shared" si="0"/>
-        <v>44667</v>
+        <v>44723</v>
       </c>
       <c r="AX5" s="67">
         <f t="shared" si="0"/>
-        <v>44668</v>
+        <v>44724</v>
       </c>
       <c r="AY5" s="65">
         <f>AX5+1</f>
-        <v>44669</v>
+        <v>44725</v>
       </c>
       <c r="AZ5" s="66">
         <f>AY5+1</f>
-        <v>44670</v>
+        <v>44726</v>
       </c>
       <c r="BA5" s="66">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44671</v>
+        <v>44727</v>
       </c>
       <c r="BB5" s="66">
         <f t="shared" si="1"/>
-        <v>44672</v>
+        <v>44728</v>
       </c>
       <c r="BC5" s="66">
         <f t="shared" si="1"/>
-        <v>44673</v>
+        <v>44729</v>
       </c>
       <c r="BD5" s="66">
         <f t="shared" si="1"/>
-        <v>44674</v>
+        <v>44730</v>
       </c>
       <c r="BE5" s="67">
         <f t="shared" si="1"/>
-        <v>44675</v>
+        <v>44731</v>
       </c>
       <c r="BF5" s="65">
         <f>BE5+1</f>
-        <v>44676</v>
+        <v>44732</v>
       </c>
       <c r="BG5" s="66">
         <f>BF5+1</f>
-        <v>44677</v>
+        <v>44733</v>
       </c>
       <c r="BH5" s="66">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44678</v>
+        <v>44734</v>
       </c>
       <c r="BI5" s="66">
         <f t="shared" si="2"/>
-        <v>44679</v>
+        <v>44735</v>
       </c>
       <c r="BJ5" s="66">
         <f t="shared" si="2"/>
-        <v>44680</v>
+        <v>44736</v>
       </c>
       <c r="BK5" s="66">
         <f t="shared" si="2"/>
-        <v>44681</v>
+        <v>44737</v>
       </c>
       <c r="BL5" s="67">
         <f t="shared" si="2"/>
-        <v>44682</v>
+        <v>44738</v>
       </c>
       <c r="BM5" s="65">
         <f>BL5+1</f>
-        <v>44683</v>
+        <v>44739</v>
       </c>
       <c r="BN5" s="66">
         <f>BM5+1</f>
-        <v>44684</v>
+        <v>44740</v>
       </c>
       <c r="BO5" s="66">
         <f t="shared" ref="BO5" si="3">BN5+1</f>
-        <v>44685</v>
+        <v>44741</v>
       </c>
       <c r="BP5" s="66">
         <f t="shared" ref="BP5" si="4">BO5+1</f>
-        <v>44686</v>
+        <v>44742</v>
       </c>
       <c r="BQ5" s="66">
         <f t="shared" ref="BQ5" si="5">BP5+1</f>
-        <v>44687</v>
+        <v>44743</v>
       </c>
       <c r="BR5" s="66">
         <f t="shared" ref="BR5" si="6">BQ5+1</f>
-        <v>44688</v>
+        <v>44744</v>
       </c>
       <c r="BS5" s="67">
         <f t="shared" ref="BS5" si="7">BR5+1</f>
-        <v>44689</v>
+        <v>44745</v>
       </c>
       <c r="BT5" s="65">
         <f>BS5+1</f>
-        <v>44690</v>
+        <v>44746</v>
       </c>
       <c r="BU5" s="66">
         <f>BT5+1</f>
-        <v>44691</v>
+        <v>44747</v>
       </c>
       <c r="BV5" s="66">
         <f t="shared" ref="BV5" si="8">BU5+1</f>
-        <v>44692</v>
+        <v>44748</v>
       </c>
       <c r="BW5" s="66">
         <f t="shared" ref="BW5" si="9">BV5+1</f>
-        <v>44693</v>
+        <v>44749</v>
       </c>
       <c r="BX5" s="66">
         <f t="shared" ref="BX5" si="10">BW5+1</f>
-        <v>44694</v>
+        <v>44750</v>
       </c>
       <c r="BY5" s="66">
         <f t="shared" ref="BY5" si="11">BX5+1</f>
-        <v>44695</v>
+        <v>44751</v>
       </c>
       <c r="BZ5" s="67">
         <f t="shared" ref="BZ5" si="12">BY5+1</f>
-        <v>44696</v>
+        <v>44752</v>
       </c>
       <c r="CA5" s="65">
         <f>BZ5+1</f>
-        <v>44697</v>
+        <v>44753</v>
       </c>
       <c r="CB5" s="66">
         <f>CA5+1</f>
-        <v>44698</v>
+        <v>44754</v>
       </c>
       <c r="CC5" s="66">
         <f t="shared" ref="CC5" si="13">CB5+1</f>
-        <v>44699</v>
+        <v>44755</v>
       </c>
       <c r="CD5" s="66">
         <f t="shared" ref="CD5" si="14">CC5+1</f>
-        <v>44700</v>
+        <v>44756</v>
       </c>
       <c r="CE5" s="66">
         <f t="shared" ref="CE5" si="15">CD5+1</f>
-        <v>44701</v>
+        <v>44757</v>
       </c>
       <c r="CF5" s="66">
         <f t="shared" ref="CF5" si="16">CE5+1</f>
-        <v>44702</v>
+        <v>44758</v>
       </c>
       <c r="CG5" s="67">
         <f t="shared" ref="CG5" si="17">CF5+1</f>
-        <v>44703</v>
+        <v>44759</v>
       </c>
       <c r="CH5" s="65">
         <f>CG5+1</f>
-        <v>44704</v>
+        <v>44760</v>
       </c>
       <c r="CI5" s="66">
         <f>CH5+1</f>
-        <v>44705</v>
+        <v>44761</v>
       </c>
       <c r="CJ5" s="66">
         <f t="shared" ref="CJ5" si="18">CI5+1</f>
-        <v>44706</v>
+        <v>44762</v>
       </c>
       <c r="CK5" s="66">
         <f t="shared" ref="CK5" si="19">CJ5+1</f>
-        <v>44707</v>
+        <v>44763</v>
       </c>
       <c r="CL5" s="66">
         <f t="shared" ref="CL5" si="20">CK5+1</f>
-        <v>44708</v>
+        <v>44764</v>
       </c>
       <c r="CM5" s="66">
         <f t="shared" ref="CM5" si="21">CL5+1</f>
-        <v>44709</v>
+        <v>44765</v>
       </c>
       <c r="CN5" s="67">
         <f t="shared" ref="CN5" si="22">CM5+1</f>
-        <v>44710</v>
+        <v>44766</v>
       </c>
       <c r="CO5" s="65">
         <f>CN5+1</f>
-        <v>44711</v>
+        <v>44767</v>
       </c>
       <c r="CP5" s="66">
         <f>CO5+1</f>
-        <v>44712</v>
+        <v>44768</v>
       </c>
       <c r="CQ5" s="66">
         <f t="shared" ref="CQ5" si="23">CP5+1</f>
-        <v>44713</v>
+        <v>44769</v>
       </c>
       <c r="CR5" s="66">
         <f t="shared" ref="CR5" si="24">CQ5+1</f>
-        <v>44714</v>
+        <v>44770</v>
       </c>
       <c r="CS5" s="66">
         <f t="shared" ref="CS5" si="25">CR5+1</f>
-        <v>44715</v>
+        <v>44771</v>
       </c>
       <c r="CT5" s="66">
         <f t="shared" ref="CT5" si="26">CS5+1</f>
-        <v>44716</v>
+        <v>44772</v>
       </c>
       <c r="CU5" s="67">
         <f t="shared" ref="CU5" si="27">CT5+1</f>
-        <v>44717</v>
+        <v>44773</v>
       </c>
       <c r="CV5" s="65">
         <f>CU5+1</f>
-        <v>44718</v>
+        <v>44774</v>
       </c>
       <c r="CW5" s="66">
         <f>CV5+1</f>
-        <v>44719</v>
+        <v>44775</v>
       </c>
       <c r="CX5" s="66">
         <f t="shared" ref="CX5" si="28">CW5+1</f>
-        <v>44720</v>
+        <v>44776</v>
       </c>
       <c r="CY5" s="66">
         <f t="shared" ref="CY5" si="29">CX5+1</f>
-        <v>44721</v>
+        <v>44777</v>
       </c>
       <c r="CZ5" s="66">
         <f t="shared" ref="CZ5" si="30">CY5+1</f>
-        <v>44722</v>
+        <v>44778</v>
       </c>
       <c r="DA5" s="66">
         <f t="shared" ref="DA5" si="31">CZ5+1</f>
-        <v>44723</v>
+        <v>44779</v>
       </c>
       <c r="DB5" s="67">
         <f t="shared" ref="DB5" si="32">DA5+1</f>
-        <v>44724</v>
+        <v>44780</v>
       </c>
       <c r="DC5" s="65">
         <f>DB5+1</f>
-        <v>44725</v>
+        <v>44781</v>
       </c>
       <c r="DD5" s="66">
         <f>DC5+1</f>
-        <v>44726</v>
+        <v>44782</v>
       </c>
       <c r="DE5" s="66">
         <f t="shared" ref="DE5" si="33">DD5+1</f>
-        <v>44727</v>
+        <v>44783</v>
       </c>
       <c r="DF5" s="66">
         <f t="shared" ref="DF5" si="34">DE5+1</f>
-        <v>44728</v>
+        <v>44784</v>
       </c>
       <c r="DG5" s="66">
         <f t="shared" ref="DG5" si="35">DF5+1</f>
-        <v>44729</v>
+        <v>44785</v>
       </c>
       <c r="DH5" s="66">
         <f t="shared" ref="DH5" si="36">DG5+1</f>
-        <v>44730</v>
+        <v>44786</v>
       </c>
       <c r="DI5" s="67">
         <f t="shared" ref="DI5" si="37">DH5+1</f>
-        <v>44731</v>
+        <v>44787</v>
       </c>
       <c r="DJ5" s="65">
         <f>DI5+1</f>
-        <v>44732</v>
+        <v>44788</v>
       </c>
       <c r="DK5" s="66">
         <f>DJ5+1</f>
-        <v>44733</v>
+        <v>44789</v>
       </c>
       <c r="DL5" s="66">
         <f t="shared" ref="DL5" si="38">DK5+1</f>
-        <v>44734</v>
+        <v>44790</v>
       </c>
       <c r="DM5" s="66">
         <f t="shared" ref="DM5" si="39">DL5+1</f>
-        <v>44735</v>
+        <v>44791</v>
       </c>
       <c r="DN5" s="66">
         <f t="shared" ref="DN5" si="40">DM5+1</f>
-        <v>44736</v>
+        <v>44792</v>
       </c>
       <c r="DO5" s="66">
         <f t="shared" ref="DO5" si="41">DN5+1</f>
-        <v>44737</v>
+        <v>44793</v>
       </c>
       <c r="DP5" s="67">
         <f t="shared" ref="DP5" si="42">DO5+1</f>
-        <v>44738</v>
+        <v>44794</v>
       </c>
     </row>
     <row r="6" spans="1:120" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3341,7 +3341,7 @@
       <c r="F8" s="56"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H42" si="48">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H37" si="48">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="26"/>
@@ -6800,12 +6800,12 @@
         <v>44690</v>
       </c>
       <c r="F34" s="88">
-        <v>44701</v>
+        <v>44696</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14">
         <f t="shared" si="48"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
@@ -6935,12 +6935,12 @@
         <v>44687</v>
       </c>
       <c r="F35" s="88">
-        <v>44701</v>
+        <v>44696</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14">
         <f t="shared" si="48"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="88">
-        <v>44690</v>
+        <v>44697</v>
       </c>
       <c r="F36" s="88">
         <v>44701</v>
@@ -7077,7 +7077,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14">
         <f t="shared" si="48"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
@@ -7451,11 +7451,11 @@
     </row>
     <row r="39" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="40"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="26"/>
@@ -7573,11 +7573,11 @@
     </row>
     <row r="40" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="40"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="26"/>
@@ -7697,11 +7697,11 @@
       <c r="A41" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="97"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="26"/>
@@ -7821,11 +7821,11 @@
       <c r="A42" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="28"/>
@@ -7967,11 +7967,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="DC4:DI4"/>
     <mergeCell ref="DJ4:DP4"/>
     <mergeCell ref="E3:F3"/>
@@ -7987,6 +7982,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="D7:D22 D24:D28 D30:D44">
